--- a/helpers/AGS_Gecodes.xlsx
+++ b/helpers/AGS_Gecodes.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6CDF6B-132D-429C-B271-F0FCB53D89F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF7A3F-AB29-467D-9F15-7218C17007BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
-    <sheet name="Kreise_MZ" sheetId="2" r:id="rId2"/>
+    <sheet name="Anpassungsischten" sheetId="3" r:id="rId2"/>
+    <sheet name="Kreise_MZ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="191">
   <si>
     <t>AGS</t>
   </si>
@@ -528,6 +529,72 @@
   </si>
   <si>
     <t>SR034</t>
+  </si>
+  <si>
+    <t>Ostniedersachsen</t>
+  </si>
+  <si>
+    <t>Südniedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dav. Hannover, Landeshauptstadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dav. Hannover, Umland</t>
+  </si>
+  <si>
+    <t>Weser-Leine-Bergland</t>
+  </si>
+  <si>
+    <t>Mittelniedersachsen</t>
+  </si>
+  <si>
+    <t>Nordniedersachsen</t>
+  </si>
+  <si>
+    <t>Nordostniedersachsen</t>
+  </si>
+  <si>
+    <t>Ostfriesland-Nordseeküste</t>
+  </si>
+  <si>
+    <t>Oldenburger Raum</t>
+  </si>
+  <si>
+    <t>Westniedersachsen</t>
+  </si>
+  <si>
+    <t>RA_01</t>
+  </si>
+  <si>
+    <t>RA_02</t>
+  </si>
+  <si>
+    <t>RA_03</t>
+  </si>
+  <si>
+    <t>RA_04</t>
+  </si>
+  <si>
+    <t>RA_05</t>
+  </si>
+  <si>
+    <t>RA_06</t>
+  </si>
+  <si>
+    <t>RA_07</t>
+  </si>
+  <si>
+    <t>RA_08</t>
+  </si>
+  <si>
+    <t>RA_09</t>
+  </si>
+  <si>
+    <t>RA_10</t>
+  </si>
+  <si>
+    <t>RA_11</t>
   </si>
 </sst>
 </file>
@@ -848,7 +915,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -1458,6 +1525,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E390942-1452-485C-9144-F7B847564929}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F48636-6733-4503-A617-21536858A015}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C55"/>

--- a/helpers/AGS_Gecodes.xlsx
+++ b/helpers/AGS_Gecodes.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF7A3F-AB29-467D-9F15-7218C17007BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C38F6-3356-4FD3-95DD-63E14009A071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
     <sheet name="Anpassungsischten" sheetId="3" r:id="rId2"/>
     <sheet name="Kreise_MZ" sheetId="2" r:id="rId3"/>
+    <sheet name="Kreise ohne Hannover Lhst" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="244">
   <si>
     <t>AGS</t>
   </si>
@@ -595,6 +596,165 @@
   </si>
   <si>
     <t>RA_11</t>
+  </si>
+  <si>
+    <t>GeoCode_ohne Hannover Lhst</t>
+  </si>
+  <si>
+    <t>RH03101</t>
+  </si>
+  <si>
+    <t>RH03102</t>
+  </si>
+  <si>
+    <t>RH03103</t>
+  </si>
+  <si>
+    <t>RH03151</t>
+  </si>
+  <si>
+    <t>RH03153</t>
+  </si>
+  <si>
+    <t>RH03154</t>
+  </si>
+  <si>
+    <t>RH03155</t>
+  </si>
+  <si>
+    <t>RH03158</t>
+  </si>
+  <si>
+    <t>RH03159</t>
+  </si>
+  <si>
+    <t>RH031</t>
+  </si>
+  <si>
+    <t>RH03241</t>
+  </si>
+  <si>
+    <t>RH03241001</t>
+  </si>
+  <si>
+    <t>RH03241999</t>
+  </si>
+  <si>
+    <t>RH03251</t>
+  </si>
+  <si>
+    <t>RH03252</t>
+  </si>
+  <si>
+    <t>RH03254</t>
+  </si>
+  <si>
+    <t>RH03255</t>
+  </si>
+  <si>
+    <t>RH03256</t>
+  </si>
+  <si>
+    <t>RH03257</t>
+  </si>
+  <si>
+    <t>RH032</t>
+  </si>
+  <si>
+    <t>RH03351</t>
+  </si>
+  <si>
+    <t>RH03352</t>
+  </si>
+  <si>
+    <t>RH03353</t>
+  </si>
+  <si>
+    <t>RH03354</t>
+  </si>
+  <si>
+    <t>RH03355</t>
+  </si>
+  <si>
+    <t>RH03356</t>
+  </si>
+  <si>
+    <t>RH03357</t>
+  </si>
+  <si>
+    <t>RH03358</t>
+  </si>
+  <si>
+    <t>RH03359</t>
+  </si>
+  <si>
+    <t>RH03360</t>
+  </si>
+  <si>
+    <t>RH03361</t>
+  </si>
+  <si>
+    <t>RH033</t>
+  </si>
+  <si>
+    <t>RH03401</t>
+  </si>
+  <si>
+    <t>RH03402</t>
+  </si>
+  <si>
+    <t>RH03403</t>
+  </si>
+  <si>
+    <t>RH03404</t>
+  </si>
+  <si>
+    <t>RH03405</t>
+  </si>
+  <si>
+    <t>RH03451</t>
+  </si>
+  <si>
+    <t>RH03452</t>
+  </si>
+  <si>
+    <t>RH03453</t>
+  </si>
+  <si>
+    <t>RH03454</t>
+  </si>
+  <si>
+    <t>RH03455</t>
+  </si>
+  <si>
+    <t>RH03456</t>
+  </si>
+  <si>
+    <t>RH03457</t>
+  </si>
+  <si>
+    <t>RH03458</t>
+  </si>
+  <si>
+    <t>RH03459</t>
+  </si>
+  <si>
+    <t>RH03460</t>
+  </si>
+  <si>
+    <t>RH03461</t>
+  </si>
+  <si>
+    <t>RH03462</t>
+  </si>
+  <si>
+    <t>RH034</t>
+  </si>
+  <si>
+    <t>RH030</t>
+  </si>
+  <si>
+    <t>RH03157</t>
   </si>
 </sst>
 </file>
@@ -916,7 +1076,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,9 +1686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E390942-1452-485C-9144-F7B847564929}">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2249,4 +2410,615 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA73025-91C5-4066-9BE2-FDE260D34066}">
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>241001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>241999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>252</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>351</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>353</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>354</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>355</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>356</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>358</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>359</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>361</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>401</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>402</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>403</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>405</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>451</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>452</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>453</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>454</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>456</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>457</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>458</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>459</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>460</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>461</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>462</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/helpers/AGS_Gecodes.xlsx
+++ b/helpers/AGS_Gecodes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C38F6-3356-4FD3-95DD-63E14009A071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE6CAF-0880-4716-8334-A1EC515FFA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2417,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:C53"/>
     </sheetView>
   </sheetViews>

--- a/helpers/AGS_Gecodes.xlsx
+++ b/helpers/AGS_Gecodes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE6CAF-0880-4716-8334-A1EC515FFA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698E0AA4-3D38-495E-9A2F-6F49DA6D8F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
@@ -1075,16 +1075,16 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>151</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>153</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>154</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>155</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>157</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>158</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>159</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>241</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>241001</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>241999</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>251</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>252</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>254</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>255</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>256</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>257</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>351</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>352</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>353</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>354</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>355</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>356</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>357</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>358</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>359</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>360</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>361</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>401</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>402</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>403</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>404</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>405</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>451</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>452</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>453</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>454</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>455</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>456</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>457</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>458</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>459</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>460</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>461</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>462</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1687,102 +1687,135 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E390942-1452-485C-9144-F7B847564929}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>173</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>176</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
         <v>179</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1800,12 +1833,12 @@
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1827,7 +1860,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1838,7 +1871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1849,7 +1882,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>151</v>
       </c>
@@ -1860,7 +1893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>153</v>
       </c>
@@ -1871,7 +1904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>154</v>
       </c>
@@ -1882,7 +1915,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>155</v>
       </c>
@@ -1893,7 +1926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>157</v>
       </c>
@@ -1904,7 +1937,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>158</v>
       </c>
@@ -1915,7 +1948,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>159</v>
       </c>
@@ -1926,7 +1959,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1937,7 +1970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>241</v>
       </c>
@@ -1948,7 +1981,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>241001</v>
       </c>
@@ -1959,7 +1992,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>241999</v>
       </c>
@@ -1967,7 +2000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>251</v>
       </c>
@@ -1978,7 +2011,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>252</v>
       </c>
@@ -1989,7 +2022,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>254</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>255</v>
       </c>
@@ -2011,7 +2044,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>256</v>
       </c>
@@ -2022,7 +2055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>257</v>
       </c>
@@ -2033,7 +2066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2044,7 +2077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>351</v>
       </c>
@@ -2055,7 +2088,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>352</v>
       </c>
@@ -2066,7 +2099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>353</v>
       </c>
@@ -2077,7 +2110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>354360</v>
       </c>
@@ -2088,7 +2121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -2099,7 +2132,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>355</v>
       </c>
@@ -2110,7 +2143,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>356</v>
       </c>
@@ -2121,7 +2154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>357</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>358</v>
       </c>
@@ -2143,7 +2176,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>359</v>
       </c>
@@ -2154,7 +2187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>361</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2176,7 +2209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>401</v>
       </c>
@@ -2187,7 +2220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>402457</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>403</v>
       </c>
@@ -2220,7 +2253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>404</v>
       </c>
@@ -2231,7 +2264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>405</v>
       </c>
@@ -2242,7 +2275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>451</v>
       </c>
@@ -2253,7 +2286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>452</v>
       </c>
@@ -2264,7 +2297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>453</v>
       </c>
@@ -2275,7 +2308,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>454</v>
       </c>
@@ -2286,7 +2319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>455462</v>
       </c>
@@ -2297,7 +2330,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -2308,7 +2341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>456</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>457</v>
       </c>
@@ -2330,7 +2363,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>458</v>
       </c>
@@ -2341,7 +2374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>459</v>
       </c>
@@ -2352,7 +2385,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>460</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>461</v>
       </c>
@@ -2374,7 +2407,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>462</v>
       </c>
@@ -2385,7 +2418,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2396,7 +2429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2421,9 +2454,9 @@
       <selection activeCell="C9" sqref="C9:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2470,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2448,7 +2481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2459,7 +2492,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2470,7 +2503,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>151</v>
       </c>
@@ -2481,7 +2514,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>153</v>
       </c>
@@ -2492,7 +2525,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2503,7 +2536,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>155</v>
       </c>
@@ -2514,7 +2547,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>157</v>
       </c>
@@ -2525,7 +2558,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>158</v>
       </c>
@@ -2536,7 +2569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>159</v>
       </c>
@@ -2547,7 +2580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2561,7 +2594,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>241</v>
       </c>
@@ -2572,7 +2605,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>241001</v>
       </c>
@@ -2583,7 +2616,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>241999</v>
       </c>
@@ -2591,7 +2624,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>251</v>
       </c>
@@ -2602,7 +2635,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>252</v>
       </c>
@@ -2613,7 +2646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>254</v>
       </c>
@@ -2624,7 +2657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>255</v>
       </c>
@@ -2635,7 +2668,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>256</v>
       </c>
@@ -2646,7 +2679,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>257</v>
       </c>
@@ -2657,7 +2690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2671,7 +2704,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>351</v>
       </c>
@@ -2682,7 +2715,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>352</v>
       </c>
@@ -2693,7 +2726,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>353</v>
       </c>
@@ -2704,7 +2737,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>354</v>
       </c>
@@ -2715,7 +2748,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>355</v>
       </c>
@@ -2726,7 +2759,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>356</v>
       </c>
@@ -2737,7 +2770,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>357</v>
       </c>
@@ -2748,7 +2781,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>358</v>
       </c>
@@ -2759,7 +2792,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>359</v>
       </c>
@@ -2770,7 +2803,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>360</v>
       </c>
@@ -2781,7 +2814,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>361</v>
       </c>
@@ -2792,7 +2825,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2806,7 +2839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>401</v>
       </c>
@@ -2817,7 +2850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>402</v>
       </c>
@@ -2828,7 +2861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>403</v>
       </c>
@@ -2839,7 +2872,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>404</v>
       </c>
@@ -2850,7 +2883,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>405</v>
       </c>
@@ -2861,7 +2894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>451</v>
       </c>
@@ -2872,7 +2905,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>452</v>
       </c>
@@ -2883,7 +2916,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>453</v>
       </c>
@@ -2894,7 +2927,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>454</v>
       </c>
@@ -2905,7 +2938,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>455</v>
       </c>
@@ -2916,7 +2949,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>456</v>
       </c>
@@ -2927,7 +2960,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>457</v>
       </c>
@@ -2938,7 +2971,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>458</v>
       </c>
@@ -2949,7 +2982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>459</v>
       </c>
@@ -2960,7 +2993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>460</v>
       </c>
@@ -2971,7 +3004,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>461</v>
       </c>
@@ -2982,7 +3015,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>462</v>
       </c>
@@ -2993,7 +3026,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -3007,7 +3040,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>

--- a/helpers/AGS_Gecodes.xlsx
+++ b/helpers/AGS_Gecodes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698E0AA4-3D38-495E-9A2F-6F49DA6D8F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E842B-F64B-4E37-8FC4-81787FDDE970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="244">
   <si>
     <t>AGS</t>
   </si>
@@ -1073,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,472 +1210,483 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>241001</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>241999</v>
+        <v>241001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>251</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+        <v>241999</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>401</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1689,7 +1700,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
